--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed1/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.65</v>
+        <v>8.347</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.368</v>
+        <v>-11.699</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>7.514000000000001</v>
+        <v>5.973000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.636</v>
+        <v>5.374000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,10 +544,10 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.167999999999999</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.77</v>
+        <v>-12.593</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.358</v>
+        <v>-11.149</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.358</v>
+        <v>-10.956</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.544</v>
+        <v>4.916</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.842</v>
+        <v>-13.127</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.336</v>
+        <v>-11.875</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.884</v>
+        <v>-11.949</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -712,10 +712,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.484</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.898</v>
+        <v>-12.068</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.882000000000001</v>
+        <v>8.580000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.07</v>
+        <v>-12.562</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.548</v>
+        <v>5.048</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.87</v>
+        <v>5.326</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.853999999999999</v>
+        <v>6.327999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.632</v>
+        <v>-12.867</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.56</v>
+        <v>6.943</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.034</v>
+        <v>-12.059</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,10 +992,10 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.664</v>
+        <v>9.428999999999998</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.69</v>
+        <v>-12.206</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.83</v>
+        <v>-12.02</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.056</v>
+        <v>-12.364</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.764</v>
+        <v>-12.395</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.226000000000001</v>
+        <v>5.298999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.606</v>
+        <v>-12.93</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.944</v>
+        <v>-11.844</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.673999999999999</v>
+        <v>5.399</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.862</v>
+        <v>5.628</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.462</v>
+        <v>-12.825</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.226</v>
+        <v>4.911999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.526000000000001</v>
+        <v>5.004</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,10 +1300,10 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.524</v>
+        <v>5.144</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.642</v>
+        <v>-13.742</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.184</v>
+        <v>-10.956</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.358</v>
+        <v>-11.073</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.732</v>
+        <v>4.814</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>5.498</v>
+        <v>6.102000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.145999999999999</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.422</v>
+        <v>-12.288</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.715999999999999</v>
+        <v>6.354000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.62</v>
+        <v>-13.349</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.262</v>
+        <v>-13.318</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.966</v>
+        <v>-13.299</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.674</v>
+        <v>4.891</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.936</v>
+        <v>-11.769</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.529999999999999</v>
+        <v>6.121</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
